--- a/server/assets/城市节点报名表合肥.xlsx
+++ b/server/assets/城市节点报名表合肥.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13160"/>
+    <workbookView windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>城市节点报名表</t>
   </si>
@@ -39,16 +39,64 @@
     <t>城市ID</t>
   </si>
   <si>
-    <t>安徽 合肥</t>
-  </si>
-  <si>
-    <t>一线城市</t>
-  </si>
-  <si>
-    <t>0xD7fAA76d2D39FA3AFcc9320741d0D1e49108B778</t>
-  </si>
-  <si>
-    <t>0x730ad915d608f40a7cea880f5abc7fe6bb253f903667be02ec00dd3028f7d24a</t>
+    <t>山西 晋城</t>
+  </si>
+  <si>
+    <t>三线城市</t>
+  </si>
+  <si>
+    <t>0x0f4468FB940716045d21E3C626a793825dea0eaB</t>
+  </si>
+  <si>
+    <t>0xdae38a59364b85ecb0a41ef7c8201e32b16d75730ab9d505a93d93a804607b0d</t>
+  </si>
+  <si>
+    <t>山东 聊城</t>
+  </si>
+  <si>
+    <t>0xef3E99B0A86284e57c73d096f20c3B983cd4c18e</t>
+  </si>
+  <si>
+    <t>0xd99610f3450bee8bc353cb21af26fcc396f772c58eb585d3c72c3c9e7c99272d</t>
+  </si>
+  <si>
+    <t>山东 济宁</t>
+  </si>
+  <si>
+    <t>0xa0a5F8edADb9933f2FfbEc9A211AA4159fDC7666</t>
+  </si>
+  <si>
+    <t>0x357ade682a67d6cac8192934ba45535075127077698d865a3eaf7d9517f95e8b</t>
+  </si>
+  <si>
+    <t>辽宁 大连</t>
+  </si>
+  <si>
+    <t>二线城市</t>
+  </si>
+  <si>
+    <t>0x0c9Face4BD7665b85aCf28A9bfBd64c1A110DC90</t>
+  </si>
+  <si>
+    <t>0x9c95e7c04fb56dca65d1a16f211d80c9a9042492771710bac0cdd5c1669b9bf9</t>
+  </si>
+  <si>
+    <t>湖北 襄阳</t>
+  </si>
+  <si>
+    <t>0xC348a135A674F09cc2D897D5C9515D80726dC82f</t>
+  </si>
+  <si>
+    <t>0x1fc76a4ef0b801132c58d9fa041735422b1d5620a05a2117c3638e8d85255096</t>
+  </si>
+  <si>
+    <t>江苏 无锡</t>
+  </si>
+  <si>
+    <t>0x3E4Fd346b1d3f8Fda597579052F5C58E31F645c4</t>
+  </si>
+  <si>
+    <t>0xfaebea784f3893784faeda7e1b6ea12af5af94b258354374d8545c3383d3d12a</t>
   </si>
 </sst>
 </file>
@@ -61,7 +109,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -79,6 +127,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -223,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +298,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -423,7 +483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -468,6 +528,43 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -581,55 +678,52 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,75 +738,81 @@
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,6 +829,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,72 +1204,171 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.79464285714286" style="1"/>
-    <col min="2" max="2" width="17.8482142857143" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6964285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="63.8214285714286" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.79464285714286" style="1"/>
-    <col min="6" max="6" width="90.5982142857143" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.79464285714286" style="1"/>
+    <col min="1" max="1" width="8.79464285714286" style="2"/>
+    <col min="2" max="2" width="17.8482142857143" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.6964285714286" style="2" customWidth="1"/>
+    <col min="4" max="4" width="63.8214285714286" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.7857142857143" style="2" customWidth="1"/>
+    <col min="6" max="6" width="90.5982142857143" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.79464285714286" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.05" customHeight="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" ht="25.05" customHeight="1" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="25.05" customHeight="1" spans="1:6">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" s="1" customFormat="1" ht="25.05" customHeight="1" spans="1:6">
+      <c r="A3" s="8">
+        <v>87</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="9">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="25.05" customHeight="1"/>
+    <row r="4" s="1" customFormat="1" ht="25.05" customHeight="1" spans="1:6">
+      <c r="A4" s="8">
+        <v>88</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="25.05" customHeight="1" spans="1:6">
+      <c r="A5" s="8">
+        <v>89</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="25.05" customHeight="1" spans="1:6">
+      <c r="A6" s="8">
+        <v>90</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="25.05" customHeight="1" spans="1:6">
+      <c r="A7" s="8">
+        <v>91</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="12">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="25.05" customHeight="1" spans="1:6">
+      <c r="A8" s="8">
+        <v>92</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/server/assets/城市节点报名表合肥.xlsx
+++ b/server/assets/城市节点报名表合肥.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13160"/>
+    <workbookView windowWidth="28000" windowHeight="12860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>城市节点报名表</t>
   </si>
@@ -39,70 +39,22 @@
     <t>城市ID</t>
   </si>
   <si>
-    <t>山西 晋城</t>
+    <t>浙江省 湖州市</t>
   </si>
   <si>
     <t>三线城市</t>
   </si>
   <si>
-    <t>0x0f4468FB940716045d21E3C626a793825dea0eaB</t>
+    <t>0x93fe62C58538b09DE8a76f9d356F79C7058D5486</t>
   </si>
   <si>
-    <t>0xdae38a59364b85ecb0a41ef7c8201e32b16d75730ab9d505a93d93a804607b0d</t>
-  </si>
-  <si>
-    <t>山东 聊城</t>
-  </si>
-  <si>
-    <t>0xef3E99B0A86284e57c73d096f20c3B983cd4c18e</t>
-  </si>
-  <si>
-    <t>0xd99610f3450bee8bc353cb21af26fcc396f772c58eb585d3c72c3c9e7c99272d</t>
-  </si>
-  <si>
-    <t>山东 济宁</t>
-  </si>
-  <si>
-    <t>0xa0a5F8edADb9933f2FfbEc9A211AA4159fDC7666</t>
-  </si>
-  <si>
-    <t>0x357ade682a67d6cac8192934ba45535075127077698d865a3eaf7d9517f95e8b</t>
-  </si>
-  <si>
-    <t>辽宁 大连</t>
-  </si>
-  <si>
-    <t>二线城市</t>
-  </si>
-  <si>
-    <t>0x0c9Face4BD7665b85aCf28A9bfBd64c1A110DC90</t>
-  </si>
-  <si>
-    <t>0x9c95e7c04fb56dca65d1a16f211d80c9a9042492771710bac0cdd5c1669b9bf9</t>
-  </si>
-  <si>
-    <t>湖北 襄阳</t>
-  </si>
-  <si>
-    <t>0xC348a135A674F09cc2D897D5C9515D80726dC82f</t>
-  </si>
-  <si>
-    <t>0x1fc76a4ef0b801132c58d9fa041735422b1d5620a05a2117c3638e8d85255096</t>
-  </si>
-  <si>
-    <t>江苏 无锡</t>
-  </si>
-  <si>
-    <t>0x3E4Fd346b1d3f8Fda597579052F5C58E31F645c4</t>
-  </si>
-  <si>
-    <t>0xfaebea784f3893784faeda7e1b6ea12af5af94b258354374d8545c3383d3d12a</t>
+    <t>0x88b762783da9744b71450c6382ff5a8081dc25936d1b8de86f3c5fa1c960b14f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -483,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -552,19 +504,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -684,7 +623,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,34 +635,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,7 +747,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -838,15 +777,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1204,13 +1134,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.79464285714286" style="2"/>
     <col min="2" max="2" width="17.8482142857143" style="3" customWidth="1"/>
@@ -1269,106 +1199,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="25.05" customHeight="1" spans="1:6">
-      <c r="A4" s="8">
-        <v>88</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="11">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="25.05" customHeight="1" spans="1:6">
-      <c r="A5" s="8">
-        <v>89</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="11">
-        <v>3</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="25.05" customHeight="1" spans="1:6">
-      <c r="A6" s="8">
-        <v>90</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="11">
-        <v>2</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="25.05" customHeight="1" spans="1:6">
-      <c r="A7" s="8">
-        <v>91</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="12">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="25.05" customHeight="1" spans="1:6">
-      <c r="A8" s="8">
-        <v>92</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>

--- a/server/assets/城市节点报名表合肥.xlsx
+++ b/server/assets/城市节点报名表合肥.xlsx
@@ -39,16 +39,16 @@
     <t>城市ID</t>
   </si>
   <si>
-    <t>浙江省 湖州市</t>
+    <t>河南 漯河</t>
   </si>
   <si>
     <t>三线城市</t>
   </si>
   <si>
-    <t>0x93fe62C58538b09DE8a76f9d356F79C7058D5486</t>
+    <t>0xe866061255291CD1424907D8443A0fE00E389fF3</t>
   </si>
   <si>
-    <t>0x88b762783da9744b71450c6382ff5a8081dc25936d1b8de86f3c5fa1c960b14f</t>
+    <t>0xaf6fcd106bb2dd9534e467e34435a31f0b98ece98b29f350ac2a87fdc911c158</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="5"/>

--- a/server/assets/城市节点报名表合肥.xlsx
+++ b/server/assets/城市节点报名表合肥.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12860"/>
+    <workbookView windowWidth="27100" windowHeight="12860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,16 +39,16 @@
     <t>城市ID</t>
   </si>
   <si>
-    <t>河南 漯河</t>
+    <t>宁夏 银川</t>
   </si>
   <si>
     <t>三线城市</t>
   </si>
   <si>
-    <t>0xe866061255291CD1424907D8443A0fE00E389fF3</t>
+    <t>0xA148419A3547AddF6b5891c492408FedA6B695c1</t>
   </si>
   <si>
-    <t>0xaf6fcd106bb2dd9534e467e34435a31f0b98ece98b29f350ac2a87fdc911c158</t>
+    <t>0x94cbad96324db862e0d25d4b63c3cd20cf811189a056508d219b1c9cae5636b7</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="5"/>

--- a/server/assets/城市节点报名表合肥.xlsx
+++ b/server/assets/城市节点报名表合肥.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27100" windowHeight="12860"/>
+    <workbookView windowWidth="24420" windowHeight="17175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>城市节点报名表</t>
   </si>
@@ -39,29 +39,41 @@
     <t>城市ID</t>
   </si>
   <si>
-    <t>宁夏 银川</t>
+    <t>江苏 南通</t>
+  </si>
+  <si>
+    <t>二线城市</t>
+  </si>
+  <si>
+    <t>0x5Ee1c6Fa4CeC95afA07444422199ff6ff6563740</t>
+  </si>
+  <si>
+    <t>0x0ae8a01033e1bfa6485da51c6277cc2ca7ca8d9f0fccf86559240e1077cbc054</t>
+  </si>
+  <si>
+    <t>河北 唐山</t>
   </si>
   <si>
     <t>三线城市</t>
   </si>
   <si>
-    <t>0xA148419A3547AddF6b5891c492408FedA6B695c1</t>
-  </si>
-  <si>
-    <t>0x94cbad96324db862e0d25d4b63c3cd20cf811189a056508d219b1c9cae5636b7</t>
+    <t>0xAC23762B17F0ec25009028C13dea1b9092e60CF5</t>
+  </si>
+  <si>
+    <t>0x8549d0e3957c74e498e26c5207d83edbfcf4f2df01e4105964f334c752e1a51a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -79,12 +91,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -229,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,12 +256,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,7 +435,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -476,30 +476,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -617,52 +593,55 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,81 +656,75 @@
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -768,15 +741,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1134,69 +1098,89 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="17.25" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.79464285714286" style="2"/>
-    <col min="2" max="2" width="17.8482142857143" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.6964285714286" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63.8214285714286" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.7857142857143" style="2" customWidth="1"/>
-    <col min="6" max="6" width="90.5982142857143" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.79464285714286" style="2"/>
+    <col min="1" max="1" width="8.79166666666667" style="1"/>
+    <col min="2" max="2" width="17.85" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63.825" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.79166666666667" style="1"/>
+    <col min="6" max="6" width="90.6" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.79166666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.05" customHeight="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" ht="25.05" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="25.05" customHeight="1" spans="1:6">
-      <c r="A3" s="8">
-        <v>87</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="3" ht="25.05" customHeight="1" spans="1:6">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="25.05" customHeight="1" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>10</v>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1202,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -1234,7 +1218,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/server/assets/城市节点报名表合肥.xlsx
+++ b/server/assets/城市节点报名表合肥.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24420" windowHeight="17175"/>
+    <workbookView windowWidth="3264" windowHeight="22700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>城市节点报名表</t>
   </si>
@@ -39,34 +39,22 @@
     <t>城市ID</t>
   </si>
   <si>
-    <t>江苏 南通</t>
+    <t>VietNam Thanh Hoa City</t>
   </si>
   <si>
     <t>二线城市</t>
   </si>
   <si>
-    <t>0x5Ee1c6Fa4CeC95afA07444422199ff6ff6563740</t>
+    <t>0xCf0A35Bf0D54F776867b09996969f01C863B5656</t>
   </si>
   <si>
-    <t>0x0ae8a01033e1bfa6485da51c6277cc2ca7ca8d9f0fccf86559240e1077cbc054</t>
-  </si>
-  <si>
-    <t>河北 唐山</t>
-  </si>
-  <si>
-    <t>三线城市</t>
-  </si>
-  <si>
-    <t>0xAC23762B17F0ec25009028C13dea1b9092e60CF5</t>
-  </si>
-  <si>
-    <t>0x8549d0e3957c74e498e26c5207d83edbfcf4f2df01e4105964f334c752e1a51a</t>
+    <t>0x221d28429d84ed61c69d8c3a340eb4379ca6940c6dabcfd186afbc80038a1e44</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1101,18 +1089,18 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="17.25" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.79166666666667" style="1"/>
-    <col min="2" max="2" width="17.85" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="63.825" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.79166666666667" style="1"/>
-    <col min="6" max="6" width="90.6" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.79166666666667" style="1"/>
+    <col min="1" max="1" width="8.79464285714286" style="1"/>
+    <col min="2" max="2" width="29.2678571428571" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.6964285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63.8214285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.79464285714286" style="1"/>
+    <col min="6" max="6" width="90.5982142857143" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.79464285714286" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.05" customHeight="1" spans="1:4">
@@ -1163,26 +1151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="25.05" customHeight="1" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="4" ht="25.05" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -1202,7 +1171,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -1218,7 +1187,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/server/assets/城市节点报名表合肥.xlsx
+++ b/server/assets/城市节点报名表合肥.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="3264" windowHeight="22700"/>
+    <workbookView windowWidth="28000" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,16 +39,16 @@
     <t>城市ID</t>
   </si>
   <si>
-    <t>VietNam Thanh Hoa City</t>
+    <t>河北 张家口</t>
   </si>
   <si>
-    <t>二线城市</t>
+    <t>三线城市</t>
   </si>
   <si>
-    <t>0xCf0A35Bf0D54F776867b09996969f01C863B5656</t>
+    <t>0x07b1dCB13FFaDA07A1a079ed6De49dd0041e34FF</t>
   </si>
   <si>
-    <t>0x221d28429d84ed61c69d8c3a340eb4379ca6940c6dabcfd186afbc80038a1e44</t>
+    <t>0x9e5c87f65ad2969b9e0ec0d46feda94af9a2111dbedb97078737dbc5cde24d45</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -730,6 +730,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1088,8 +1091,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1141,11 +1144,11 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>

--- a/server/assets/城市节点报名表合肥.xlsx
+++ b/server/assets/城市节点报名表合肥.xlsx
@@ -39,16 +39,16 @@
     <t>城市ID</t>
   </si>
   <si>
-    <t>河北 张家口</t>
+    <t>VietNam Da Nang</t>
   </si>
   <si>
-    <t>三线城市</t>
+    <t>二线城市</t>
   </si>
   <si>
-    <t>0x07b1dCB13FFaDA07A1a079ed6De49dd0041e34FF</t>
+    <t>0xde53A3daF23345D5F255aF696D3DA9A90492A478</t>
   </si>
   <si>
-    <t>0x9e5c87f65ad2969b9e0ec0d46feda94af9a2111dbedb97078737dbc5cde24d45</t>
+    <t>0xe07e8a8a22b4a0f18a804512e305a2de9ec91d71a54cdc8a050ab376641401e8</t>
   </si>
 </sst>
 </file>
@@ -1091,8 +1091,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1148,7 +1148,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>

--- a/server/assets/城市节点报名表合肥.xlsx
+++ b/server/assets/城市节点报名表合肥.xlsx
@@ -39,16 +39,16 @@
     <t>城市ID</t>
   </si>
   <si>
-    <t>VietNam Da Nang</t>
+    <t>中国 海口</t>
   </si>
   <si>
-    <t>二线城市</t>
+    <t>三线城市</t>
   </si>
   <si>
-    <t>0xde53A3daF23345D5F255aF696D3DA9A90492A478</t>
+    <t>0x96262880206821EE8AA93AF645EA1c0437d63E1A</t>
   </si>
   <si>
-    <t>0xe07e8a8a22b4a0f18a804512e305a2de9ec91d71a54cdc8a050ab376641401e8</t>
+    <t>0xb9cd82388e3ee54bbff9b4a2ed627865b7aa43466fccea379fef8264450a2a31</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1148,7 +1148,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>

--- a/server/assets/城市节点报名表合肥.xlsx
+++ b/server/assets/城市节点报名表合肥.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11900"/>
+    <workbookView windowWidth="31700" windowHeight="12140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,16 +39,17 @@
     <t>城市ID</t>
   </si>
   <si>
-    <t>中国 海口</t>
+    <t>江西 上饶</t>
   </si>
   <si>
     <t>三线城市</t>
   </si>
   <si>
-    <t>0x96262880206821EE8AA93AF645EA1c0437d63E1A</t>
+    <t xml:space="preserve">0x0bf76f11F86aB2CdEd5a3e9Ab1E52AaB2Ebf431c
+</t>
   </si>
   <si>
-    <t>0xb9cd82388e3ee54bbff9b4a2ed627865b7aa43466fccea379fef8264450a2a31</t>
+    <t>0x9550bebe86a16193ff77efb21625de63f406828cbffa62df0a4ae3174ab3a8e2</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1093,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>

--- a/server/assets/城市节点报名表合肥.xlsx
+++ b/server/assets/城市节点报名表合肥.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31700" windowHeight="12140"/>
+    <workbookView windowWidth="28000" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>城市节点报名表</t>
   </si>
@@ -39,17 +39,21 @@
     <t>城市ID</t>
   </si>
   <si>
-    <t>江西 上饶</t>
+    <t>先锋类别（城市/区县）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国 沧州
+</t>
   </si>
   <si>
     <t>三线城市</t>
   </si>
   <si>
-    <t xml:space="preserve">0x0bf76f11F86aB2CdEd5a3e9Ab1E52AaB2Ebf431c
+    <t xml:space="preserve">0x1B525Dc21651D9A8f1fDA25154B653769e41Dd7C
 </t>
   </si>
   <si>
-    <t>0x9550bebe86a16193ff77efb21625de63f406828cbffa62df0a4ae3174ab3a8e2</t>
+    <t>0x44974426d9a801c47dcfbc9467afafa6005076e1689b693e97957b29d469bc72</t>
   </si>
 </sst>
 </file>
@@ -1090,13 +1094,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.79464285714286" style="1"/>
     <col min="2" max="2" width="29.2678571428571" style="2" customWidth="1"/>
@@ -1104,7 +1108,8 @@
     <col min="4" max="4" width="63.8214285714286" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.79464285714286" style="1"/>
     <col min="6" max="6" width="90.5982142857143" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.79464285714286" style="1"/>
+    <col min="7" max="7" width="24.4732142857143" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.79464285714286" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.05" customHeight="1" spans="1:4">
@@ -1115,7 +1120,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" ht="25.05" customHeight="1" spans="1:6">
+    <row r="2" ht="25.05" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1133,26 +1138,29 @@
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="25.05" customHeight="1" spans="1:6">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="25.05" customHeight="1"/>
